--- a/Client/Assets/Publish/Config/资源路径.xlsx
+++ b/Client/Assets/Publish/Config/资源路径.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AudioConfig" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t>Admin:</t>
         </r>
@@ -40,7 +39,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 1：音乐
@@ -55,7 +53,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t>1.2D短音效（界面中）
 2.2D长音效（界面中）
@@ -73,7 +70,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t>Admin:</t>
         </r>
@@ -81,7 +77,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 在预制体中设置播放模式，或者在程序中写播放模式
@@ -100,7 +95,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t>Admin:</t>
         </r>
@@ -108,7 +102,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 所有音乐音效在同一文件夹下
@@ -135,7 +128,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t>Admin:</t>
         </r>
@@ -143,7 +135,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 所有音乐音效在同一文件夹下
@@ -170,7 +161,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t>Admin:</t>
         </r>
@@ -178,7 +168,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 所有音乐音效在同一文件夹下
@@ -193,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>音乐音效ID</t>
   </si>
@@ -277,19 +266,29 @@
   </si>
   <si>
     <t>default</t>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Art/Models/chan/Prefabs/unitychan.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Art/Models/chan/Prefabs/unitychan_hw.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Art/Models/chan/Prefabs/UnityChanSSU_DynCol.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,359 +300,38 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -661,253 +339,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -921,59 +357,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1235,23 +624,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
@@ -1261,7 +649,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1295,7 +683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
@@ -1329,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
@@ -1346,7 +734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>10003</v>
       </c>
@@ -1363,7 +751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>10004</v>
       </c>
@@ -1380,7 +768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>10005</v>
       </c>
@@ -1397,7 +785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>10006</v>
       </c>
@@ -1415,31 +803,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E9">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <autoFilter ref="A3:E9"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="27.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:2">
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1447,7 +832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:2">
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1455,7 +840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:2">
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1463,7 +848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:2">
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
@@ -1471,7 +856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:2">
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
@@ -1479,7 +864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:2">
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>10003</v>
       </c>
@@ -1487,7 +872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:2">
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>10004</v>
       </c>
@@ -1495,7 +880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:2">
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>10005</v>
       </c>
@@ -1503,7 +888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:2">
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>10006</v>
       </c>
@@ -1511,7 +896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>200001</v>
       </c>
@@ -1519,7 +904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>200002</v>
       </c>
@@ -1527,7 +912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>200003</v>
       </c>
@@ -1535,7 +920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>200004</v>
       </c>
@@ -1544,38 +929,37 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="B5:B9 B4" numberStoredAsText="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="A7" sqref="A7:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.75" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:2">
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1583,7 +967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:2">
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1591,60 +975,33 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:2">
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>10003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:2">
-      <c r="A7" s="1">
-        <v>10004</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:2">
-      <c r="A8" s="1">
-        <v>10005</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="1:2">
-      <c r="A9" s="1">
-        <v>10006</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="B5:B9" numberStoredAsText="1"/>
-  </ignoredErrors>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>